--- a/output/3Y_P9_KFSDIV.xlsx
+++ b/output/3Y_P9_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -3839,7 +3842,7 @@
         <v>214783.9233</v>
       </c>
       <c r="K19" s="1">
-        <v>154100.4396</v>
+        <v>154100.9587</v>
       </c>
       <c r="L19" s="1">
         <v>11.819</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -3892,7 +3895,7 @@
         <v>221592.9545</v>
       </c>
       <c r="K20" s="1">
-        <v>154423.3186</v>
+        <v>154423.8378</v>
       </c>
       <c r="L20" s="1">
         <v>11.8226</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -3945,10 +3948,10 @@
         <v>232026.5559</v>
       </c>
       <c r="K21" s="1">
-        <v>167665.9057</v>
+        <v>167666.4249</v>
       </c>
       <c r="L21" s="1">
-        <v>11.9453</v>
+        <v>11.9454</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -3998,7 +4001,7 @@
         <v>263030.1248</v>
       </c>
       <c r="K22" s="1">
-        <v>183118.9691</v>
+        <v>183119.4882</v>
       </c>
       <c r="L22" s="1">
         <v>12.0423</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -4051,10 +4054,10 @@
         <v>264311.0015</v>
       </c>
       <c r="K23" s="1">
-        <v>172009.2372</v>
+        <v>172054.1313</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9077</v>
+        <v>11.9108</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -4104,10 +4107,10 @@
         <v>254010.8741</v>
       </c>
       <c r="K24" s="1">
-        <v>190803.4568</v>
+        <v>190848.351</v>
       </c>
       <c r="L24" s="1">
-        <v>12.0849</v>
+        <v>12.0877</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -4157,10 +4160,10 @@
         <v>266571.0212</v>
       </c>
       <c r="K25" s="1">
-        <v>227676.1331</v>
+        <v>227721.0272</v>
       </c>
       <c r="L25" s="1">
-        <v>12.1177</v>
+        <v>12.1201</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -4210,10 +4213,10 @@
         <v>276295.6637</v>
       </c>
       <c r="K26" s="1">
-        <v>234997.9446</v>
+        <v>235042.8387</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1274</v>
+        <v>12.1297</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -4263,10 +4266,10 @@
         <v>305131.8246</v>
       </c>
       <c r="K27" s="1">
-        <v>245285.1133</v>
+        <v>245330.0074</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1395</v>
+        <v>12.1417</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -4316,10 +4319,10 @@
         <v>324228.947</v>
       </c>
       <c r="K28" s="1">
-        <v>245127.1201</v>
+        <v>245172.6461</v>
       </c>
       <c r="L28" s="1">
-        <v>12.139</v>
+        <v>12.1412</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -4369,10 +4372,10 @@
         <v>344894.8405</v>
       </c>
       <c r="K29" s="1">
-        <v>246033.6224</v>
+        <v>246079.1484</v>
       </c>
       <c r="L29" s="1">
-        <v>12.1431</v>
+        <v>12.1454</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -4422,10 +4425,10 @@
         <v>379070.9001</v>
       </c>
       <c r="K30" s="1">
-        <v>245361.417</v>
+        <v>245409.6302</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1389</v>
+        <v>12.1413</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -4475,10 +4478,10 @@
         <v>403678.5753</v>
       </c>
       <c r="K31" s="1">
-        <v>240282.5998</v>
+        <v>240351.0852</v>
       </c>
       <c r="L31" s="1">
-        <v>12.095</v>
+        <v>12.0984</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -4528,10 +4531,10 @@
         <v>384535.3604</v>
       </c>
       <c r="K32" s="1">
-        <v>235656.4433</v>
+        <v>235743.41</v>
       </c>
       <c r="L32" s="1">
-        <v>12.0443</v>
+        <v>12.0488</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -4581,10 +4584,10 @@
         <v>408861.9785</v>
       </c>
       <c r="K33" s="1">
-        <v>274956.5885</v>
+        <v>275043.5552</v>
       </c>
       <c r="L33" s="1">
-        <v>12.2785</v>
+        <v>12.2824</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -4634,10 +4637,10 @@
         <v>420388.2508</v>
       </c>
       <c r="K34" s="1">
-        <v>279294.9553</v>
+        <v>279381.922</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3038</v>
+        <v>12.3076</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -4687,10 +4690,10 @@
         <v>428593.0991</v>
       </c>
       <c r="K35" s="1">
-        <v>287785.2737</v>
+        <v>287872.2404</v>
       </c>
       <c r="L35" s="1">
-        <v>12.353</v>
+        <v>12.3567</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -4740,10 +4743,10 @@
         <v>478252.9094</v>
       </c>
       <c r="K36" s="1">
-        <v>299593.68</v>
+        <v>299680.6467</v>
       </c>
       <c r="L36" s="1">
-        <v>12.415</v>
+        <v>12.4186</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -4793,10 +4796,10 @@
         <v>488998.6415</v>
       </c>
       <c r="K37" s="1">
-        <v>280293.1494</v>
+        <v>280457.2589</v>
       </c>
       <c r="L37" s="1">
-        <v>12.2531</v>
+        <v>12.2603</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -4846,10 +4849,10 @@
         <v>482113.1568</v>
       </c>
       <c r="K38" s="1">
-        <v>289584.5357</v>
+        <v>289748.6453</v>
       </c>
       <c r="L38" s="1">
-        <v>12.3339</v>
+        <v>12.3409</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -6091,10 +6094,10 @@
         <v>265790.129</v>
       </c>
       <c r="K23" s="1">
-        <v>181675.4482</v>
+        <v>181719.7522</v>
       </c>
       <c r="L23" s="1">
-        <v>11.9595</v>
+        <v>11.9624</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -6144,10 +6147,10 @@
         <v>254368.3286</v>
       </c>
       <c r="K24" s="1">
-        <v>202030.1812</v>
+        <v>202074.4852</v>
       </c>
       <c r="L24" s="1">
-        <v>12.137</v>
+        <v>12.1397</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -6197,10 +6200,10 @@
         <v>267072.2587</v>
       </c>
       <c r="K25" s="1">
-        <v>241524.0329</v>
+        <v>241568.337</v>
       </c>
       <c r="L25" s="1">
-        <v>12.1618</v>
+        <v>12.1641</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -6250,10 +6253,10 @@
         <v>276777.9595</v>
       </c>
       <c r="K26" s="1">
-        <v>249911.3686</v>
+        <v>249955.6727</v>
       </c>
       <c r="L26" s="1">
-        <v>12.1708</v>
+        <v>12.173</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -6303,10 +6306,10 @@
         <v>306762.6932</v>
       </c>
       <c r="K27" s="1">
-        <v>261489.9747</v>
+        <v>261534.2788</v>
       </c>
       <c r="L27" s="1">
-        <v>12.1817</v>
+        <v>12.1838</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -6356,10 +6359,10 @@
         <v>326449.6403</v>
       </c>
       <c r="K28" s="1">
-        <v>262029.2662</v>
+        <v>262073.5702</v>
       </c>
       <c r="L28" s="1">
-        <v>12.1832</v>
+        <v>12.1852</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -6409,10 +6412,10 @@
         <v>347835.6542</v>
       </c>
       <c r="K29" s="1">
-        <v>263731.5647</v>
+        <v>263775.8688</v>
       </c>
       <c r="L29" s="1">
-        <v>12.1902</v>
+        <v>12.1923</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -6462,10 +6465,10 @@
         <v>383691.5163</v>
       </c>
       <c r="K30" s="1">
-        <v>263780.4579</v>
+        <v>263824.762</v>
       </c>
       <c r="L30" s="1">
-        <v>12.1905</v>
+        <v>12.1926</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -6515,10 +6518,10 @@
         <v>409369.2766</v>
       </c>
       <c r="K31" s="1">
-        <v>259140.2093</v>
+        <v>259203.035</v>
       </c>
       <c r="L31" s="1">
-        <v>12.1539</v>
+        <v>12.1568</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -6568,10 +6571,10 @@
         <v>388011.1613</v>
       </c>
       <c r="K32" s="1">
-        <v>255002.1373</v>
+        <v>255081.4944</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1125</v>
+        <v>12.1163</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -6621,10 +6624,10 @@
         <v>413438.831</v>
       </c>
       <c r="K33" s="1">
-        <v>298146.5343</v>
+        <v>298225.8914</v>
       </c>
       <c r="L33" s="1">
-        <v>12.3421</v>
+        <v>12.3454</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -6674,10 +6677,10 @@
         <v>425086.027</v>
       </c>
       <c r="K34" s="1">
-        <v>303714.633</v>
+        <v>303793.9901</v>
       </c>
       <c r="L34" s="1">
-        <v>12.3711</v>
+        <v>12.3743</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -6727,10 +6730,10 @@
         <v>433135.9807</v>
       </c>
       <c r="K35" s="1">
-        <v>313815.9841</v>
+        <v>313895.3412</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4231</v>
+        <v>12.4263</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -6780,10 +6783,10 @@
         <v>486216.3617</v>
       </c>
       <c r="K36" s="1">
-        <v>327569.7038</v>
+        <v>327649.0609</v>
       </c>
       <c r="L36" s="1">
-        <v>12.487</v>
+        <v>12.49</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -6833,10 +6836,10 @@
         <v>497029.1112</v>
       </c>
       <c r="K37" s="1">
-        <v>307569.7583</v>
+        <v>307729.0538</v>
       </c>
       <c r="L37" s="1">
-        <v>12.3369</v>
+        <v>12.3432</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -6886,10 +6889,10 @@
         <v>488574.9142</v>
       </c>
       <c r="K38" s="1">
-        <v>318708.7773</v>
+        <v>318868.0728</v>
       </c>
       <c r="L38" s="1">
-        <v>12.4231</v>
+        <v>12.4293</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -8131,10 +8134,10 @@
         <v>267301.7047</v>
       </c>
       <c r="K23" s="1">
-        <v>192018.1593</v>
+        <v>192062.2321</v>
       </c>
       <c r="L23" s="1">
-        <v>12.012</v>
+        <v>12.0148</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -8184,10 +8187,10 @@
         <v>254679.1879</v>
       </c>
       <c r="K24" s="1">
-        <v>214079.0563</v>
+        <v>214123.1291</v>
       </c>
       <c r="L24" s="1">
-        <v>12.1896</v>
+        <v>12.1922</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -8237,10 +8240,10 @@
         <v>267537.2269</v>
       </c>
       <c r="K25" s="1">
-        <v>256423.2064</v>
+        <v>256467.2792</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2062</v>
+        <v>12.2083</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -8290,10 +8293,10 @@
         <v>277222.3435</v>
       </c>
       <c r="K26" s="1">
-        <v>266005.934</v>
+        <v>266050.0069</v>
       </c>
       <c r="L26" s="1">
-        <v>12.2143</v>
+        <v>12.2163</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -8343,10 +8346,10 @@
         <v>308445.6064</v>
       </c>
       <c r="K27" s="1">
-        <v>279031.8742</v>
+        <v>279075.9471</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2238</v>
+        <v>12.2258</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -8396,10 +8399,10 @@
         <v>328770.8918</v>
       </c>
       <c r="K28" s="1">
-        <v>280386.5567</v>
+        <v>280430.6295</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2271</v>
+        <v>12.229</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -8449,10 +8452,10 @@
         <v>350939.7741</v>
       </c>
       <c r="K29" s="1">
-        <v>283018.9426</v>
+        <v>283063.0154</v>
       </c>
       <c r="L29" s="1">
-        <v>12.2369</v>
+        <v>12.2388</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -8502,10 +8505,10 @@
         <v>388623.1195</v>
       </c>
       <c r="K30" s="1">
-        <v>283925.2461</v>
+        <v>283969.319</v>
       </c>
       <c r="L30" s="1">
-        <v>12.2416</v>
+        <v>12.2435</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -8555,10 +8558,10 @@
         <v>415472.5126</v>
       </c>
       <c r="K31" s="1">
-        <v>279842.6656</v>
+        <v>279903.0341</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2122</v>
+        <v>12.2148</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -8608,10 +8611,10 @@
         <v>391681.0603</v>
       </c>
       <c r="K32" s="1">
-        <v>276324.2554</v>
+        <v>276398.6798</v>
       </c>
       <c r="L32" s="1">
-        <v>12.1802</v>
+        <v>12.1834</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -8661,10 +8664,10 @@
         <v>418319.6755</v>
       </c>
       <c r="K33" s="1">
-        <v>323783.7082</v>
+        <v>323858.1326</v>
       </c>
       <c r="L33" s="1">
-        <v>12.405</v>
+        <v>12.4079</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -8714,10 +8717,10 @@
         <v>430100.2531</v>
       </c>
       <c r="K34" s="1">
-        <v>330805.7854</v>
+        <v>330880.2098</v>
       </c>
       <c r="L34" s="1">
-        <v>12.4376</v>
+        <v>12.4404</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -8767,10 +8770,10 @@
         <v>437977.8946</v>
       </c>
       <c r="K35" s="1">
-        <v>342794.464</v>
+        <v>342868.8884</v>
       </c>
       <c r="L35" s="1">
-        <v>12.4924</v>
+        <v>12.4951</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -8820,10 +8823,10 @@
         <v>494863.9179</v>
       </c>
       <c r="K36" s="1">
-        <v>358819.849</v>
+        <v>358894.2734</v>
       </c>
       <c r="L36" s="1">
-        <v>12.558</v>
+        <v>12.5606</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -8873,10 +8876,10 @@
         <v>505751.5581</v>
       </c>
       <c r="K37" s="1">
-        <v>338161.0962</v>
+        <v>338318.0921</v>
       </c>
       <c r="L37" s="1">
-        <v>12.4195</v>
+        <v>12.4253</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -8926,10 +8929,10 @@
         <v>495537.8817</v>
       </c>
       <c r="K38" s="1">
-        <v>351492.7426</v>
+        <v>351649.7385</v>
       </c>
       <c r="L38" s="1">
-        <v>12.5112</v>
+        <v>12.5168</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9.603999999999999</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-16</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>10.3595</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>10.0875</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>10.1692</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.0872</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-12</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>11.0976</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-11</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>10.8505</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>11.8576</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5699</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.5994</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-7</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.6663</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.701</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.8109</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.9322</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>12.5846</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-2</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>12.2867</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>13.0645</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8083</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>13.5636</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>13.1788</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.5668</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>13.962</v>
@@ -10171,10 +10174,10 @@
         <v>268875.7602</v>
       </c>
       <c r="K23" s="1">
-        <v>203061.8053</v>
+        <v>203105.4644</v>
       </c>
       <c r="L23" s="1">
-        <v>12.0637</v>
+        <v>12.0663</v>
       </c>
       <c r="M23" s="1">
         <v>0.5</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>12.2659</v>
@@ -10224,10 +10227,10 @@
         <v>254967.5399</v>
       </c>
       <c r="K24" s="1">
-        <v>226988.0575</v>
+        <v>227031.7167</v>
       </c>
       <c r="L24" s="1">
-        <v>12.2414</v>
+        <v>12.2437</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>12.4103</v>
@@ -10277,10 +10280,10 @@
         <v>267933.1028</v>
       </c>
       <c r="K25" s="1">
-        <v>264967.0218</v>
+        <v>265010.681</v>
       </c>
       <c r="L25" s="1">
-        <v>12.2484</v>
+        <v>12.2504</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>12.3976</v>
@@ -10330,10 +10333,10 @@
         <v>277608.186</v>
       </c>
       <c r="K26" s="1">
-        <v>274967.0218</v>
+        <v>275010.681</v>
       </c>
       <c r="L26" s="1">
-        <v>12.2551</v>
+        <v>12.257</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>12.9013</v>
@@ -10383,10 +10386,10 @@
         <v>309348.6351</v>
       </c>
       <c r="K27" s="1">
-        <v>284967.0218</v>
+        <v>285010.681</v>
       </c>
       <c r="L27" s="1">
-        <v>12.2609</v>
+        <v>12.2628</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>13.3527</v>
@@ -10436,10 +10439,10 @@
         <v>330311.2413</v>
       </c>
       <c r="K28" s="1">
-        <v>300918.5095</v>
+        <v>300962.1687</v>
       </c>
       <c r="L28" s="1">
-        <v>12.2945</v>
+        <v>12.2963</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.8804</v>
@@ -10489,10 +10492,10 @@
         <v>353331.6421</v>
       </c>
       <c r="K29" s="1">
-        <v>304634.0608</v>
+        <v>304677.72</v>
       </c>
       <c r="L29" s="1">
-        <v>12.3066</v>
+        <v>12.3084</v>
       </c>
       <c r="M29" s="1">
         <v>0.5</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>14.6268</v>
@@ -10542,10 +10545,10 @@
         <v>393007.4133</v>
       </c>
       <c r="K30" s="1">
-        <v>306554.4816</v>
+        <v>306598.1408</v>
       </c>
       <c r="L30" s="1">
-        <v>12.3155</v>
+        <v>12.3173</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>15.3636</v>
@@ -10595,10 +10598,10 @@
         <v>421140.4247</v>
       </c>
       <c r="K31" s="1">
-        <v>303168.872</v>
+        <v>303226.0449</v>
       </c>
       <c r="L31" s="1">
-        <v>12.2936</v>
+        <v>12.2959</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>13.8711</v>
@@ -10648,10 +10651,10 @@
         <v>394673.8294</v>
       </c>
       <c r="K32" s="1">
-        <v>300424.7028</v>
+        <v>300492.8386</v>
       </c>
       <c r="L32" s="1">
-        <v>12.271</v>
+        <v>12.2738</v>
       </c>
       <c r="M32" s="1">
         <v>0.5</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.1252</v>
@@ -10701,10 +10704,10 @@
         <v>422645.1919</v>
       </c>
       <c r="K33" s="1">
-        <v>352730.9656</v>
+        <v>352799.1014</v>
       </c>
       <c r="L33" s="1">
-        <v>12.4879</v>
+        <v>12.4903</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>14.1934</v>
@@ -10754,10 +10757,10 @@
         <v>434573.0039</v>
       </c>
       <c r="K34" s="1">
-        <v>361467.978</v>
+        <v>361536.1137</v>
       </c>
       <c r="L34" s="1">
-        <v>12.5235</v>
+        <v>12.5259</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>14.1176</v>
@@ -10807,10 +10810,10 @@
         <v>442258.7833</v>
       </c>
       <c r="K35" s="1">
-        <v>375665.2335</v>
+        <v>375733.3693</v>
       </c>
       <c r="L35" s="1">
-        <v>12.5803</v>
+        <v>12.5826</v>
       </c>
       <c r="M35" s="1">
         <v>0.5</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>15.3311</v>
@@ -10860,10 +10863,10 @@
         <v>503382.79</v>
       </c>
       <c r="K36" s="1">
-        <v>394342.1412</v>
+        <v>394410.277</v>
       </c>
       <c r="L36" s="1">
-        <v>12.6466</v>
+        <v>12.6488</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>15.3637</v>
@@ -10913,10 +10916,10 @@
         <v>514354.2039</v>
       </c>
       <c r="K37" s="1">
-        <v>373086.1531</v>
+        <v>373239.2475</v>
       </c>
       <c r="L37" s="1">
-        <v>12.5205</v>
+        <v>12.5257</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>14.6447</v>
@@ -10966,10 +10969,10 @@
         <v>502164.9258</v>
       </c>
       <c r="K38" s="1">
-        <v>389017.1958</v>
+        <v>389170.2902</v>
       </c>
       <c r="L38" s="1">
-        <v>12.617</v>
+        <v>12.6219</v>
       </c>
       <c r="M38" s="1">
         <v>1</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,16 +11048,16 @@
         <v>13.1096</v>
       </c>
       <c r="D3" s="1">
-        <v>12.3339</v>
+        <v>12.3409</v>
       </c>
       <c r="E3" s="1">
-        <v>12.4231</v>
+        <v>12.4293</v>
       </c>
       <c r="F3" s="1">
-        <v>12.5112</v>
+        <v>12.5168</v>
       </c>
       <c r="G3" s="1">
-        <v>12.617</v>
+        <v>12.6219</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>108450.7003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1149</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.6639</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5322</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.4092</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.2903</v>
       </c>
     </row>
   </sheetData>
